--- a/eval/math.metrics.xlsx
+++ b/eval/math.metrics.xlsx
@@ -8,38 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elizaveta/Documents/uni/thesis/thesis/eval/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B86461-C605-4042-8A9A-2FA157AC0A7D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BF1F6-0DD8-CA4A-81AE-05EE3E437FB7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="500" windowWidth="26020" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5780" yWindow="500" windowWidth="22780" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By target" sheetId="1" r:id="rId1"/>
     <sheet name="By metric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'By metric'!#REF!</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'By metric'!#REF!</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'By metric'!$E$3:$E$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'By metric'!#REF!</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'By metric'!#REF!</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'By metric'!$A$3:$A$28</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'By metric'!$B$2</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'By metric'!$B$3:$B$28</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'By metric'!$C$2</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'By metric'!$C$3:$C$28</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">'By metric'!$D$2</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">'By metric'!$D$3:$D$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'By metric'!$A$3:$A$28</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'By metric'!$E$2</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'By metric'!$E$3:$E$28</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'By metric'!$B$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'By metric'!$B$3:$B$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'By metric'!$C$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'By metric'!$C$3:$C$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'By metric'!$D$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'By metric'!$D$3:$D$28</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'By metric'!$E$2</definedName>
-  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -8415,82 +8391,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>432.5</c:v>
+                  <c:v>72.66</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197.5</c:v>
+                  <c:v>51.726190476190482</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>294</c:v>
+                  <c:v>64.039603960396036</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>218</c:v>
+                  <c:v>56.423529411764711</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>777.49999999999989</c:v>
+                  <c:v>105.1911764705882</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>27.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172</c:v>
+                  <c:v>47.898734177215189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>294</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.5</c:v>
+                  <c:v>27.522058823529409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>242.5</c:v>
+                  <c:v>61.321839080459768</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>219</c:v>
+                  <c:v>52.369565217391298</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>299</c:v>
+                  <c:v>64.490196078431367</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>407</c:v>
+                  <c:v>72.796747967479675</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102</c:v>
+                  <c:v>28.92537313432836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>243</c:v>
+                  <c:v>51.03</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167</c:v>
+                  <c:v>39.172839506172828</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>260</c:v>
+                  <c:v>54.476190476190482</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>474.49999999999989</c:v>
+                  <c:v>101.34951456310679</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>747.5</c:v>
+                  <c:v>113.8576158940397</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95</c:v>
+                  <c:v>27.76923076923077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>26.71875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90</c:v>
+                  <c:v>26.71875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.5</c:v>
+                  <c:v>28.356060606060609</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>274.5</c:v>
+                  <c:v>64.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>534</c:v>
+                  <c:v>90.369230769230754</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8618,82 +8594,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>291.5</c:v>
+                  <c:v>52.771551724137929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158.5</c:v>
+                  <c:v>42.524390243902438</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>207.5</c:v>
+                  <c:v>48.05263157894737</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>172</c:v>
+                  <c:v>45.047619047619037</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>530.5</c:v>
+                  <c:v>75.785714285714292</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>27.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>141.5</c:v>
+                  <c:v>39.405063291139243</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>215</c:v>
+                  <c:v>52.05263157894737</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.5</c:v>
+                  <c:v>27.522058823529409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>188.5</c:v>
+                  <c:v>48.220930232558139</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>162</c:v>
+                  <c:v>40.044943820224717</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>221.5</c:v>
+                  <c:v>50.760416666666657</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>270.5</c:v>
+                  <c:v>53.133928571428577</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102</c:v>
+                  <c:v>28.92537313432836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>185</c:v>
+                  <c:v>40.894736842105267</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167</c:v>
+                  <c:v>39.172839506172828</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>193</c:v>
+                  <c:v>43.773195876288661</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>325.5</c:v>
+                  <c:v>69.967289719626166</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>440.49999999999989</c:v>
+                  <c:v>67.543333333333337</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95</c:v>
+                  <c:v>27.76923076923077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>26.71875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90</c:v>
+                  <c:v>26.71875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.5</c:v>
+                  <c:v>28.356060606060609</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>194.5</c:v>
+                  <c:v>48.078651685393261</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>341</c:v>
+                  <c:v>60.991869918699187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8821,82 +8797,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>329</c:v>
+                  <c:v>61.141592920353979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146</c:v>
+                  <c:v>43.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196.5</c:v>
+                  <c:v>49.664835164835161</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>38.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>511.5</c:v>
+                  <c:v>73.951807228915669</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>27.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>123.5</c:v>
+                  <c:v>37.049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>188.5</c:v>
+                  <c:v>52.949438202247187</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.5</c:v>
+                  <c:v>27.522058823529409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>185.5</c:v>
+                  <c:v>46.375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>158</c:v>
+                  <c:v>43.45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>175</c:v>
+                  <c:v>45.224719101123597</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>262.5</c:v>
+                  <c:v>59.191176470588239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102</c:v>
+                  <c:v>28.92537313432836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>138</c:v>
+                  <c:v>32.774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167</c:v>
+                  <c:v>39.172839506172828</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>196</c:v>
+                  <c:v>47.515151515151523</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>265</c:v>
+                  <c:v>69.890109890109883</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>465</c:v>
+                  <c:v>74.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>138</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>26.71875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90</c:v>
+                  <c:v>26.71875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.5</c:v>
+                  <c:v>28.356060606060609</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>181</c:v>
+                  <c:v>50.768292682926827</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>338.5</c:v>
+                  <c:v>64.879166666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9024,82 +9000,82 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>250</c:v>
+                  <c:v>46.296296296296298</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125</c:v>
+                  <c:v>35.958904109589042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>162.5</c:v>
+                  <c:v>40.147058823529413</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>136</c:v>
+                  <c:v>36.266666666666673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>412</c:v>
+                  <c:v>58.102564102564102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>27.3125</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120.5</c:v>
+                  <c:v>34.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>170</c:v>
+                  <c:v>44.523809523809518</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.5</c:v>
+                  <c:v>27.522058823529409</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156.5</c:v>
+                  <c:v>40.128205128205117</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>124</c:v>
+                  <c:v>33.513513513513523</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>172</c:v>
+                  <c:v>42.516853932584269</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>209</c:v>
+                  <c:v>45.24742268041237</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>102</c:v>
+                  <c:v>28.92537313432836</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>91</c:v>
+                  <c:v>26.6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>138</c:v>
+                  <c:v>32.774999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>167</c:v>
+                  <c:v>39.172839506172828</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>164</c:v>
+                  <c:v>36.444444444444443</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>209.5</c:v>
+                  <c:v>53.006024096385538</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>356</c:v>
+                  <c:v>53.021276595744681</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95</c:v>
+                  <c:v>27.76923076923077</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>26.71875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90</c:v>
+                  <c:v>26.71875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>98.5</c:v>
+                  <c:v>28.356060606060609</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>155</c:v>
+                  <c:v>40.6875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>277</c:v>
+                  <c:v>47.758620689655167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -28031,8 +28007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="57" workbookViewId="0">
-      <selection activeCell="F334" sqref="F334"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="106" workbookViewId="0">
+      <selection activeCell="G164" sqref="G164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30387,16 +30363,16 @@
         <v>0</v>
       </c>
       <c r="B148">
-        <v>432.5</v>
+        <v>72.66</v>
       </c>
       <c r="C148">
-        <v>291.5</v>
+        <v>52.771551724137929</v>
       </c>
       <c r="D148">
-        <v>329</v>
+        <v>61.141592920353979</v>
       </c>
       <c r="E148">
-        <v>250</v>
+        <v>46.296296296296298</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -30404,16 +30380,16 @@
         <v>22</v>
       </c>
       <c r="B149">
-        <v>197.5</v>
+        <v>51.726190476190482</v>
       </c>
       <c r="C149">
-        <v>158.5</v>
+        <v>42.524390243902438</v>
       </c>
       <c r="D149">
-        <v>146</v>
+        <v>43.8</v>
       </c>
       <c r="E149">
-        <v>125</v>
+        <v>35.958904109589042</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -30421,16 +30397,16 @@
         <v>23</v>
       </c>
       <c r="B150">
-        <v>294</v>
+        <v>64.039603960396036</v>
       </c>
       <c r="C150">
-        <v>207.5</v>
+        <v>48.05263157894737</v>
       </c>
       <c r="D150">
-        <v>196.5</v>
+        <v>49.664835164835161</v>
       </c>
       <c r="E150">
-        <v>162.5</v>
+        <v>40.147058823529413</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -30438,16 +30414,16 @@
         <v>24</v>
       </c>
       <c r="B151">
-        <v>218</v>
+        <v>56.423529411764711</v>
       </c>
       <c r="C151">
-        <v>172</v>
+        <v>45.047619047619037</v>
       </c>
       <c r="D151">
-        <v>139</v>
+        <v>38.92</v>
       </c>
       <c r="E151">
-        <v>136</v>
+        <v>36.266666666666673</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -30455,16 +30431,16 @@
         <v>25</v>
       </c>
       <c r="B152">
-        <v>777.49999999999989</v>
+        <v>105.1911764705882</v>
       </c>
       <c r="C152">
-        <v>530.5</v>
+        <v>75.785714285714292</v>
       </c>
       <c r="D152">
-        <v>511.5</v>
+        <v>73.951807228915669</v>
       </c>
       <c r="E152">
-        <v>412</v>
+        <v>58.102564102564102</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -30472,16 +30448,16 @@
         <v>26</v>
       </c>
       <c r="B153">
-        <v>92</v>
+        <v>27.3125</v>
       </c>
       <c r="C153">
-        <v>92</v>
+        <v>27.3125</v>
       </c>
       <c r="D153">
-        <v>92</v>
+        <v>27.3125</v>
       </c>
       <c r="E153">
-        <v>92</v>
+        <v>27.3125</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -30489,16 +30465,16 @@
         <v>27</v>
       </c>
       <c r="B154">
-        <v>172</v>
+        <v>47.898734177215189</v>
       </c>
       <c r="C154">
-        <v>141.5</v>
+        <v>39.405063291139243</v>
       </c>
       <c r="D154">
-        <v>123.5</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="E154">
-        <v>120.5</v>
+        <v>34.428571428571431</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -30506,16 +30482,16 @@
         <v>28</v>
       </c>
       <c r="B155">
-        <v>294</v>
+        <v>69</v>
       </c>
       <c r="C155">
-        <v>215</v>
+        <v>52.05263157894737</v>
       </c>
       <c r="D155">
-        <v>188.5</v>
+        <v>52.949438202247187</v>
       </c>
       <c r="E155">
-        <v>170</v>
+        <v>44.523809523809518</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -30523,16 +30499,16 @@
         <v>29</v>
       </c>
       <c r="B156">
-        <v>98.5</v>
+        <v>27.522058823529409</v>
       </c>
       <c r="C156">
-        <v>98.5</v>
+        <v>27.522058823529409</v>
       </c>
       <c r="D156">
-        <v>98.5</v>
+        <v>27.522058823529409</v>
       </c>
       <c r="E156">
-        <v>98.5</v>
+        <v>27.522058823529409</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -30540,16 +30516,16 @@
         <v>53</v>
       </c>
       <c r="B157">
-        <v>242.5</v>
+        <v>61.321839080459768</v>
       </c>
       <c r="C157">
-        <v>188.5</v>
+        <v>48.220930232558139</v>
       </c>
       <c r="D157">
-        <v>185.5</v>
+        <v>46.375</v>
       </c>
       <c r="E157">
-        <v>156.5</v>
+        <v>40.128205128205117</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -30557,16 +30533,16 @@
         <v>31</v>
       </c>
       <c r="B158">
-        <v>219</v>
+        <v>52.369565217391298</v>
       </c>
       <c r="C158">
-        <v>162</v>
+        <v>40.044943820224717</v>
       </c>
       <c r="D158">
-        <v>158</v>
+        <v>43.45</v>
       </c>
       <c r="E158">
-        <v>124</v>
+        <v>33.513513513513523</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -30574,16 +30550,16 @@
         <v>54</v>
       </c>
       <c r="B159">
-        <v>299</v>
+        <v>64.490196078431367</v>
       </c>
       <c r="C159">
-        <v>221.5</v>
+        <v>50.760416666666657</v>
       </c>
       <c r="D159">
-        <v>175</v>
+        <v>45.224719101123597</v>
       </c>
       <c r="E159">
-        <v>172</v>
+        <v>42.516853932584269</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -30591,16 +30567,16 @@
         <v>33</v>
       </c>
       <c r="B160">
-        <v>407</v>
+        <v>72.796747967479675</v>
       </c>
       <c r="C160">
-        <v>270.5</v>
+        <v>53.133928571428577</v>
       </c>
       <c r="D160">
-        <v>262.5</v>
+        <v>59.191176470588239</v>
       </c>
       <c r="E160">
-        <v>209</v>
+        <v>45.24742268041237</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -30608,16 +30584,16 @@
         <v>34</v>
       </c>
       <c r="B161">
-        <v>102</v>
+        <v>28.92537313432836</v>
       </c>
       <c r="C161">
-        <v>102</v>
+        <v>28.92537313432836</v>
       </c>
       <c r="D161">
-        <v>102</v>
+        <v>28.92537313432836</v>
       </c>
       <c r="E161">
-        <v>102</v>
+        <v>28.92537313432836</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -30625,16 +30601,16 @@
         <v>35</v>
       </c>
       <c r="B162">
-        <v>91</v>
+        <v>26.6</v>
       </c>
       <c r="C162">
-        <v>91</v>
+        <v>26.6</v>
       </c>
       <c r="D162">
-        <v>91</v>
+        <v>26.6</v>
       </c>
       <c r="E162">
-        <v>91</v>
+        <v>26.6</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -30642,16 +30618,16 @@
         <v>36</v>
       </c>
       <c r="B163">
-        <v>243</v>
+        <v>51.03</v>
       </c>
       <c r="C163">
-        <v>185</v>
+        <v>40.894736842105267</v>
       </c>
       <c r="D163">
-        <v>138</v>
+        <v>32.774999999999999</v>
       </c>
       <c r="E163">
-        <v>138</v>
+        <v>32.774999999999999</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -30659,16 +30635,16 @@
         <v>37</v>
       </c>
       <c r="B164">
-        <v>167</v>
+        <v>39.172839506172828</v>
       </c>
       <c r="C164">
-        <v>167</v>
+        <v>39.172839506172828</v>
       </c>
       <c r="D164">
-        <v>167</v>
+        <v>39.172839506172828</v>
       </c>
       <c r="E164">
-        <v>167</v>
+        <v>39.172839506172828</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -30676,16 +30652,16 @@
         <v>38</v>
       </c>
       <c r="B165">
-        <v>260</v>
+        <v>54.476190476190482</v>
       </c>
       <c r="C165">
-        <v>193</v>
+        <v>43.773195876288661</v>
       </c>
       <c r="D165">
-        <v>196</v>
+        <v>47.515151515151523</v>
       </c>
       <c r="E165">
-        <v>164</v>
+        <v>36.444444444444443</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -30693,16 +30669,16 @@
         <v>39</v>
       </c>
       <c r="B166">
-        <v>474.49999999999989</v>
+        <v>101.34951456310679</v>
       </c>
       <c r="C166">
-        <v>325.5</v>
+        <v>69.967289719626166</v>
       </c>
       <c r="D166">
-        <v>265</v>
+        <v>69.890109890109883</v>
       </c>
       <c r="E166">
-        <v>209.5</v>
+        <v>53.006024096385538</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -30710,16 +30686,16 @@
         <v>40</v>
       </c>
       <c r="B167">
-        <v>747.5</v>
+        <v>113.8576158940397</v>
       </c>
       <c r="C167">
-        <v>440.49999999999989</v>
+        <v>67.543333333333337</v>
       </c>
       <c r="D167">
-        <v>465</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="E167">
-        <v>356</v>
+        <v>53.021276595744681</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -30727,16 +30703,16 @@
         <v>41</v>
       </c>
       <c r="B168">
-        <v>95</v>
+        <v>27.76923076923077</v>
       </c>
       <c r="C168">
-        <v>95</v>
+        <v>27.76923076923077</v>
       </c>
       <c r="D168">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="E168">
-        <v>95</v>
+        <v>27.76923076923077</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -30744,16 +30720,16 @@
         <v>42</v>
       </c>
       <c r="B169">
-        <v>95</v>
+        <v>26.71875</v>
       </c>
       <c r="C169">
-        <v>95</v>
+        <v>26.71875</v>
       </c>
       <c r="D169">
-        <v>95</v>
+        <v>26.71875</v>
       </c>
       <c r="E169">
-        <v>95</v>
+        <v>26.71875</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -30761,16 +30737,16 @@
         <v>43</v>
       </c>
       <c r="B170">
-        <v>90</v>
+        <v>26.71875</v>
       </c>
       <c r="C170">
-        <v>90</v>
+        <v>26.71875</v>
       </c>
       <c r="D170">
-        <v>90</v>
+        <v>26.71875</v>
       </c>
       <c r="E170">
-        <v>90</v>
+        <v>26.71875</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -30778,16 +30754,16 @@
         <v>44</v>
       </c>
       <c r="B171">
-        <v>98.5</v>
+        <v>28.356060606060609</v>
       </c>
       <c r="C171">
-        <v>98.5</v>
+        <v>28.356060606060609</v>
       </c>
       <c r="D171">
-        <v>98.5</v>
+        <v>28.356060606060609</v>
       </c>
       <c r="E171">
-        <v>98.5</v>
+        <v>28.356060606060609</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -30795,16 +30771,16 @@
         <v>45</v>
       </c>
       <c r="B172">
-        <v>274.5</v>
+        <v>64.935483870967744</v>
       </c>
       <c r="C172">
-        <v>194.5</v>
+        <v>48.078651685393261</v>
       </c>
       <c r="D172">
-        <v>181</v>
+        <v>50.768292682926827</v>
       </c>
       <c r="E172">
-        <v>155</v>
+        <v>40.6875</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -30812,16 +30788,16 @@
         <v>46</v>
       </c>
       <c r="B173">
-        <v>534</v>
+        <v>90.369230769230754</v>
       </c>
       <c r="C173">
-        <v>341</v>
+        <v>60.991869918699187</v>
       </c>
       <c r="D173">
-        <v>338.5</v>
+        <v>64.879166666666663</v>
       </c>
       <c r="E173">
-        <v>277</v>
+        <v>47.758620689655167</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
